--- a/Code/Results/Cases/Case_4_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008656896859937</v>
+        <v>1.034580809857016</v>
       </c>
       <c r="D2">
-        <v>1.024498779038527</v>
+        <v>1.037780492126913</v>
       </c>
       <c r="E2">
-        <v>1.016775137226797</v>
+        <v>1.03822575358075</v>
       </c>
       <c r="F2">
-        <v>1.014576051395058</v>
+        <v>1.044587770365218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048261978164244</v>
+        <v>1.039755918629503</v>
       </c>
       <c r="J2">
-        <v>1.030581729072451</v>
+        <v>1.039699273166877</v>
       </c>
       <c r="K2">
-        <v>1.035627040159032</v>
+        <v>1.040570399656616</v>
       </c>
       <c r="L2">
-        <v>1.028005611819076</v>
+        <v>1.041014391730533</v>
       </c>
       <c r="M2">
-        <v>1.025835985992295</v>
+        <v>1.047358399524011</v>
       </c>
       <c r="N2">
-        <v>1.032045273337119</v>
+        <v>1.041175765389948</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013260536137642</v>
+        <v>1.035533240766308</v>
       </c>
       <c r="D3">
-        <v>1.027886523025955</v>
+        <v>1.038495034182168</v>
       </c>
       <c r="E3">
-        <v>1.020882773116101</v>
+        <v>1.039126364437</v>
       </c>
       <c r="F3">
-        <v>1.020032578542522</v>
+        <v>1.045791274615673</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049983636949969</v>
+        <v>1.040046446879131</v>
       </c>
       <c r="J3">
-        <v>1.033396119162419</v>
+        <v>1.040294880276605</v>
       </c>
       <c r="K3">
-        <v>1.038174603377768</v>
+        <v>1.041095072102385</v>
       </c>
       <c r="L3">
-        <v>1.03125524942223</v>
+        <v>1.041724732698938</v>
       </c>
       <c r="M3">
-        <v>1.030415397808534</v>
+        <v>1.048372149208502</v>
       </c>
       <c r="N3">
-        <v>1.034863660183822</v>
+        <v>1.041772218330088</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016175632113362</v>
+        <v>1.036149713575338</v>
       </c>
       <c r="D4">
-        <v>1.030033989697432</v>
+        <v>1.038957486580054</v>
       </c>
       <c r="E4">
-        <v>1.023488862019254</v>
+        <v>1.039709648816163</v>
       </c>
       <c r="F4">
-        <v>1.023489384417231</v>
+        <v>1.046570541138812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051063189836851</v>
+        <v>1.040233201468797</v>
       </c>
       <c r="J4">
-        <v>1.035174422976533</v>
+        <v>1.040679853774693</v>
       </c>
       <c r="K4">
-        <v>1.039782956077075</v>
+        <v>1.041433995033528</v>
       </c>
       <c r="L4">
-        <v>1.033311827478892</v>
+        <v>1.042184268249752</v>
       </c>
       <c r="M4">
-        <v>1.033312343924067</v>
+        <v>1.049028064688214</v>
       </c>
       <c r="N4">
-        <v>1.036644489393325</v>
+        <v>1.042157738534701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017386437443929</v>
+        <v>1.036408922904061</v>
       </c>
       <c r="D5">
-        <v>1.030926456946759</v>
+        <v>1.039151923610618</v>
       </c>
       <c r="E5">
-        <v>1.024572502281349</v>
+        <v>1.039954987385247</v>
       </c>
       <c r="F5">
-        <v>1.024925638533617</v>
+        <v>1.04689826936627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051509006327969</v>
+        <v>1.040311416735644</v>
       </c>
       <c r="J5">
-        <v>1.035912111344828</v>
+        <v>1.040841594585946</v>
       </c>
       <c r="K5">
-        <v>1.040449809363519</v>
+        <v>1.041576339961814</v>
       </c>
       <c r="L5">
-        <v>1.03416573646544</v>
+        <v>1.042377431814377</v>
       </c>
       <c r="M5">
-        <v>1.034514960914591</v>
+        <v>1.049303800186537</v>
       </c>
       <c r="N5">
-        <v>1.037383225363718</v>
+        <v>1.042319709036458</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.017588890775172</v>
+        <v>1.036452447867579</v>
       </c>
       <c r="D6">
-        <v>1.031075710532491</v>
+        <v>1.039184571709481</v>
       </c>
       <c r="E6">
-        <v>1.024753761526076</v>
+        <v>1.039996188164879</v>
       </c>
       <c r="F6">
-        <v>1.025165815772616</v>
+        <v>1.046953303694411</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051583396481303</v>
+        <v>1.040324532035151</v>
       </c>
       <c r="J6">
-        <v>1.036035400705472</v>
+        <v>1.040868745580937</v>
       </c>
       <c r="K6">
-        <v>1.040561240131558</v>
+        <v>1.041600232176957</v>
       </c>
       <c r="L6">
-        <v>1.034308495953763</v>
+        <v>1.042409863331947</v>
       </c>
       <c r="M6">
-        <v>1.034716007591731</v>
+        <v>1.04935009672941</v>
       </c>
       <c r="N6">
-        <v>1.037506689809395</v>
+        <v>1.042346898588976</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016191867992353</v>
+        <v>1.036153176970108</v>
       </c>
       <c r="D7">
-        <v>1.030045955009999</v>
+        <v>1.038960084571716</v>
       </c>
       <c r="E7">
-        <v>1.023503388089873</v>
+        <v>1.039712926548776</v>
       </c>
       <c r="F7">
-        <v>1.023508641548267</v>
+        <v>1.046574919769421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05106917811071</v>
+        <v>1.040234247749914</v>
       </c>
       <c r="J7">
-        <v>1.035184318515934</v>
+        <v>1.040682015364944</v>
       </c>
       <c r="K7">
-        <v>1.039791902753259</v>
+        <v>1.041435897597446</v>
       </c>
       <c r="L7">
-        <v>1.033323278923577</v>
+        <v>1.042186849410489</v>
       </c>
       <c r="M7">
-        <v>1.033328472540475</v>
+        <v>1.049031749123846</v>
       </c>
       <c r="N7">
-        <v>1.036654398985527</v>
+        <v>1.042159903194658</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010226271397037</v>
+        <v>1.03490264949362</v>
       </c>
       <c r="D8">
-        <v>1.025653144805831</v>
+        <v>1.038021954550219</v>
       </c>
       <c r="E8">
-        <v>1.018174340100282</v>
+        <v>1.038530009229371</v>
       </c>
       <c r="F8">
-        <v>1.016435860110377</v>
+        <v>1.044994393068555</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048851099208375</v>
+        <v>1.039854359871663</v>
       </c>
       <c r="J8">
-        <v>1.031541933560105</v>
+        <v>1.039900648890347</v>
       </c>
       <c r="K8">
-        <v>1.036496487809232</v>
+        <v>1.040747833932667</v>
       </c>
       <c r="L8">
-        <v>1.029113629743196</v>
+        <v>1.041254475643119</v>
       </c>
       <c r="M8">
-        <v>1.027397706154226</v>
+        <v>1.047701011111569</v>
       </c>
       <c r="N8">
-        <v>1.033006841425274</v>
+        <v>1.041377427090043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9991987458218906</v>
+        <v>1.03270050675891</v>
       </c>
       <c r="D9">
-        <v>1.0175536073117</v>
+        <v>1.036369624428763</v>
       </c>
       <c r="E9">
-        <v>1.008365577236318</v>
+        <v>1.036449644362436</v>
       </c>
       <c r="F9">
-        <v>1.003372327899536</v>
+        <v>1.042213259154611</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044667702792619</v>
+        <v>1.03917549166535</v>
       </c>
       <c r="J9">
-        <v>1.024779830201694</v>
+        <v>1.038520555310849</v>
       </c>
       <c r="K9">
-        <v>1.030368167498838</v>
+        <v>1.039530996915325</v>
       </c>
       <c r="L9">
-        <v>1.02132437136068</v>
+        <v>1.039610756039763</v>
       </c>
       <c r="M9">
-        <v>1.016410927363564</v>
+        <v>1.045355700812302</v>
       </c>
       <c r="N9">
-        <v>1.02623513510447</v>
+        <v>1.039995373619363</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9914600846250216</v>
+        <v>1.03123340810243</v>
       </c>
       <c r="D10">
-        <v>1.011887189794516</v>
+        <v>1.035268645017429</v>
       </c>
       <c r="E10">
-        <v>1.001513205728155</v>
+        <v>1.0350655283515</v>
       </c>
       <c r="F10">
-        <v>0.9942082949714802</v>
+        <v>1.040361802673109</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041677750831957</v>
+        <v>1.038716571941578</v>
       </c>
       <c r="J10">
-        <v>1.020016673549596</v>
+        <v>1.03759835256572</v>
       </c>
       <c r="K10">
-        <v>1.026045083786456</v>
+        <v>1.038716858673666</v>
       </c>
       <c r="L10">
-        <v>1.015855192421681</v>
+        <v>1.038514469008764</v>
       </c>
       <c r="M10">
-        <v>1.008682913794638</v>
+        <v>1.043791889086679</v>
       </c>
       <c r="N10">
-        <v>1.021465214223584</v>
+        <v>1.039071861240558</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9880074789699822</v>
+        <v>1.030598378873195</v>
       </c>
       <c r="D11">
-        <v>1.009364099279508</v>
+        <v>1.034792055696787</v>
       </c>
       <c r="E11">
-        <v>0.9984639756392369</v>
+        <v>1.034466862739046</v>
       </c>
       <c r="F11">
-        <v>0.99011963054443</v>
+        <v>1.039560719113775</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040331419753251</v>
+        <v>1.038516354028157</v>
       </c>
       <c r="J11">
-        <v>1.017887813507562</v>
+        <v>1.037198526496314</v>
       </c>
       <c r="K11">
-        <v>1.024111556932968</v>
+        <v>1.038363643086758</v>
       </c>
       <c r="L11">
-        <v>1.013414917381253</v>
+        <v>1.038039659210206</v>
       </c>
       <c r="M11">
-        <v>1.005230312954732</v>
+        <v>1.043114672489831</v>
       </c>
       <c r="N11">
-        <v>1.019333330956106</v>
+        <v>1.038671467372273</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9867088275981781</v>
+        <v>1.030362536183254</v>
       </c>
       <c r="D12">
-        <v>1.008415895827458</v>
+        <v>1.034615051360719</v>
       </c>
       <c r="E12">
-        <v>0.9973182983611389</v>
+        <v>1.034244592378856</v>
       </c>
       <c r="F12">
-        <v>0.9885816272868426</v>
+        <v>1.039263251849873</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039823202128707</v>
+        <v>1.038441758641662</v>
       </c>
       <c r="J12">
-        <v>1.01708654348593</v>
+        <v>1.037049937627065</v>
       </c>
       <c r="K12">
-        <v>1.023383617392349</v>
+        <v>1.03823234012521</v>
       </c>
       <c r="L12">
-        <v>1.012497056517496</v>
+        <v>1.037863277643067</v>
       </c>
       <c r="M12">
-        <v>1.003930904296993</v>
+        <v>1.042863112214053</v>
       </c>
       <c r="N12">
-        <v>1.018530923039137</v>
+        <v>1.038522667489786</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9869881413402273</v>
+        <v>1.030413123632892</v>
       </c>
       <c r="D13">
-        <v>1.008619796854295</v>
+        <v>1.034653018375842</v>
       </c>
       <c r="E13">
-        <v>0.997564653093885</v>
+        <v>1.034292265557625</v>
       </c>
       <c r="F13">
-        <v>0.988912427109459</v>
+        <v>1.039327055488398</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039932590682142</v>
+        <v>1.038457769807896</v>
       </c>
       <c r="J13">
-        <v>1.017258903712991</v>
+        <v>1.037081813861717</v>
       </c>
       <c r="K13">
-        <v>1.02354021194324</v>
+        <v>1.038260509708337</v>
       </c>
       <c r="L13">
-        <v>1.012694468414679</v>
+        <v>1.037901112806978</v>
       </c>
       <c r="M13">
-        <v>1.004210415995033</v>
+        <v>1.042917073292518</v>
       </c>
       <c r="N13">
-        <v>1.01870352803749</v>
+        <v>1.038554588992348</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9879004680798403</v>
+        <v>1.030578883318387</v>
       </c>
       <c r="D14">
-        <v>1.009285948670597</v>
+        <v>1.034777424006406</v>
       </c>
       <c r="E14">
-        <v>0.9983695443328403</v>
+        <v>1.034448487743462</v>
       </c>
       <c r="F14">
-        <v>0.9899928993895308</v>
+        <v>1.039536128527928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040289578414706</v>
+        <v>1.038510192549902</v>
       </c>
       <c r="J14">
-        <v>1.01782179810459</v>
+        <v>1.037186245635337</v>
       </c>
       <c r="K14">
-        <v>1.024051586893574</v>
+        <v>1.038352791640848</v>
       </c>
       <c r="L14">
-        <v>1.013339283624811</v>
+        <v>1.038025079779705</v>
       </c>
       <c r="M14">
-        <v>1.005123255368775</v>
+        <v>1.043093878684102</v>
       </c>
       <c r="N14">
-        <v>1.01926722180369</v>
+        <v>1.038659169071064</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9884604073694756</v>
+        <v>1.030681018035392</v>
       </c>
       <c r="D15">
-        <v>1.009694909240109</v>
+        <v>1.034854077381897</v>
       </c>
       <c r="E15">
-        <v>0.9988637116402519</v>
+        <v>1.034544754752777</v>
       </c>
       <c r="F15">
-        <v>0.9906560209552066</v>
+        <v>1.039664957343834</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040508441483529</v>
+        <v>1.038542462051858</v>
       </c>
       <c r="J15">
-        <v>1.018167205398482</v>
+        <v>1.037250579482964</v>
       </c>
       <c r="K15">
-        <v>1.024365355844275</v>
+        <v>1.038409635954735</v>
       </c>
       <c r="L15">
-        <v>1.013735041579653</v>
+        <v>1.038101457808992</v>
       </c>
       <c r="M15">
-        <v>1.005683407780514</v>
+        <v>1.043202812732539</v>
       </c>
       <c r="N15">
-        <v>1.019613119615558</v>
+        <v>1.038723594280134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9916870028946856</v>
+        <v>1.031275557856701</v>
       </c>
       <c r="D16">
-        <v>1.012053126766956</v>
+        <v>1.035300277743424</v>
       </c>
       <c r="E16">
-        <v>1.001713782796328</v>
+        <v>1.035105273901415</v>
       </c>
       <c r="F16">
-        <v>0.9944770075173529</v>
+        <v>1.040414980727971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041765983102994</v>
+        <v>1.038729828104549</v>
       </c>
       <c r="J16">
-        <v>1.020156514941612</v>
+        <v>1.037624877073075</v>
       </c>
       <c r="K16">
-        <v>1.026172067010414</v>
+        <v>1.038740285964601</v>
       </c>
       <c r="L16">
-        <v>1.016015576170683</v>
+        <v>1.038545978290656</v>
       </c>
       <c r="M16">
-        <v>1.008909729158541</v>
+        <v>1.043836832082869</v>
       </c>
       <c r="N16">
-        <v>1.021605254206417</v>
+        <v>1.039098423415756</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9936831027245941</v>
+        <v>1.031648559855274</v>
       </c>
       <c r="D17">
-        <v>1.013513376382065</v>
+        <v>1.035580206046332</v>
       </c>
       <c r="E17">
-        <v>1.00347908181667</v>
+        <v>1.03545705147739</v>
       </c>
       <c r="F17">
-        <v>0.9968407286369454</v>
+        <v>1.040885613214028</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042540722811578</v>
+        <v>1.038846955731132</v>
       </c>
       <c r="J17">
-        <v>1.021386213143527</v>
+        <v>1.037859528811651</v>
       </c>
       <c r="K17">
-        <v>1.02728854437324</v>
+        <v>1.038947510006953</v>
       </c>
       <c r="L17">
-        <v>1.017426383877113</v>
+        <v>1.038824785073573</v>
       </c>
       <c r="M17">
-        <v>1.01090437900879</v>
+        <v>1.044234515029661</v>
       </c>
       <c r="N17">
-        <v>1.022836698720827</v>
+        <v>1.039333408386715</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9948376457095199</v>
+        <v>1.031866148186898</v>
       </c>
       <c r="D18">
-        <v>1.014358451096474</v>
+        <v>1.035743497138399</v>
       </c>
       <c r="E18">
-        <v>1.004500880168368</v>
+        <v>1.035662301575762</v>
       </c>
       <c r="F18">
-        <v>0.9982078974683761</v>
+        <v>1.04116018401774</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042987657087284</v>
+        <v>1.038915129296051</v>
       </c>
       <c r="J18">
-        <v>1.022097109269398</v>
+        <v>1.03799634833442</v>
       </c>
       <c r="K18">
-        <v>1.027933857686187</v>
+        <v>1.039068313838249</v>
       </c>
       <c r="L18">
-        <v>1.018242372205975</v>
+        <v>1.038987397678998</v>
       </c>
       <c r="M18">
-        <v>1.012057636803897</v>
+        <v>1.044466469483345</v>
       </c>
       <c r="N18">
-        <v>1.023548604400738</v>
+        <v>1.0394704222089</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9952296882989059</v>
+        <v>1.031940344006525</v>
       </c>
       <c r="D19">
-        <v>1.014645486126275</v>
+        <v>1.035799177471119</v>
       </c>
       <c r="E19">
-        <v>1.004847973028593</v>
+        <v>1.035732297422141</v>
       </c>
       <c r="F19">
-        <v>0.9986721418486518</v>
+        <v>1.041253815567539</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043139219849946</v>
+        <v>1.038938350119177</v>
       </c>
       <c r="J19">
-        <v>1.022338442518873</v>
+        <v>1.038042991955655</v>
       </c>
       <c r="K19">
-        <v>1.028152904743708</v>
+        <v>1.03910949353861</v>
       </c>
       <c r="L19">
-        <v>1.018519448358263</v>
+        <v>1.039042842549416</v>
       </c>
       <c r="M19">
-        <v>1.012449168550756</v>
+        <v>1.044545558737821</v>
       </c>
       <c r="N19">
-        <v>1.023790280371109</v>
+        <v>1.039517132069427</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9934699548255901</v>
+        <v>1.031608537933727</v>
       </c>
       <c r="D20">
-        <v>1.013357398741217</v>
+        <v>1.035550170970895</v>
       </c>
       <c r="E20">
-        <v>1.003290501084523</v>
+        <v>1.035419302428224</v>
       </c>
       <c r="F20">
-        <v>0.9965883265660228</v>
+        <v>1.040835112721428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042458116006268</v>
+        <v>1.038834404041507</v>
       </c>
       <c r="J20">
-        <v>1.021254940428171</v>
+        <v>1.037834357952458</v>
       </c>
       <c r="K20">
-        <v>1.02716937151596</v>
+        <v>1.03892528369793</v>
       </c>
       <c r="L20">
-        <v>1.017275736716423</v>
+        <v>1.038794872844748</v>
       </c>
       <c r="M20">
-        <v>1.010691432592065</v>
+        <v>1.044191848169608</v>
       </c>
       <c r="N20">
-        <v>1.022705239583158</v>
+        <v>1.039308201782016</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9876322655268653</v>
+        <v>1.030530070242036</v>
       </c>
       <c r="D21">
-        <v>1.009090092472315</v>
+        <v>1.034740789030701</v>
       </c>
       <c r="E21">
-        <v>0.9981328904451231</v>
+        <v>1.034402481418074</v>
       </c>
       <c r="F21">
-        <v>0.9896752696907857</v>
+        <v>1.039474559226848</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040184681966095</v>
+        <v>1.038494761583209</v>
       </c>
       <c r="J21">
-        <v>1.017656334621956</v>
+        <v>1.037155495166522</v>
       </c>
       <c r="K21">
-        <v>1.023901272725976</v>
+        <v>1.038325619750516</v>
       </c>
       <c r="L21">
-        <v>1.013149722338201</v>
+        <v>1.037988575035534</v>
       </c>
       <c r="M21">
-        <v>1.004854923391452</v>
+        <v>1.043041814234866</v>
       </c>
       <c r="N21">
-        <v>1.019101523343932</v>
+        <v>1.038628374933056</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9838676425245384</v>
+        <v>1.029852199978052</v>
       </c>
       <c r="D22">
-        <v>1.006343019630943</v>
+        <v>1.034232027082796</v>
       </c>
       <c r="E22">
-        <v>0.9948141511764165</v>
+        <v>1.033763748670526</v>
       </c>
       <c r="F22">
-        <v>0.9852164890895728</v>
+        <v>1.038619650461576</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038708040314021</v>
+        <v>1.038279910100086</v>
       </c>
       <c r="J22">
-        <v>1.015332601892571</v>
+        <v>1.036728229606928</v>
       </c>
       <c r="K22">
-        <v>1.021789858705256</v>
+        <v>1.037947991722529</v>
       </c>
       <c r="L22">
-        <v>1.010489045539884</v>
+        <v>1.037481530890459</v>
       </c>
       <c r="M22">
-        <v>1.001086611247832</v>
+        <v>1.042318673289438</v>
       </c>
       <c r="N22">
-        <v>1.016774490647536</v>
+        <v>1.03820050260736</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9858725986899043</v>
+        <v>1.030211532294999</v>
       </c>
       <c r="D23">
-        <v>1.007805569344591</v>
+        <v>1.034501718954412</v>
       </c>
       <c r="E23">
-        <v>0.9965809319271182</v>
+        <v>1.034102297497905</v>
       </c>
       <c r="F23">
-        <v>0.9875912329556936</v>
+        <v>1.039072804223052</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039495444850242</v>
+        <v>1.038393930542626</v>
       </c>
       <c r="J23">
-        <v>1.016570445236382</v>
+        <v>1.036954772513146</v>
       </c>
       <c r="K23">
-        <v>1.022914699549593</v>
+        <v>1.038148235781069</v>
       </c>
       <c r="L23">
-        <v>1.011906037034352</v>
+        <v>1.037750333205809</v>
       </c>
       <c r="M23">
-        <v>1.003093967698373</v>
+        <v>1.042702030686874</v>
       </c>
       <c r="N23">
-        <v>1.018014091870877</v>
+        <v>1.03842736723049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.993566297244071</v>
+        <v>1.031626622047517</v>
       </c>
       <c r="D24">
-        <v>1.013427898875612</v>
+        <v>1.035563742486509</v>
       </c>
       <c r="E24">
-        <v>1.003375736870203</v>
+        <v>1.035436359400323</v>
       </c>
       <c r="F24">
-        <v>0.9967024118030343</v>
+        <v>1.040857931538187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04249545776133</v>
+        <v>1.03884007605776</v>
       </c>
       <c r="J24">
-        <v>1.021314276550828</v>
+        <v>1.037845731731224</v>
       </c>
       <c r="K24">
-        <v>1.027223238825553</v>
+        <v>1.038935327015558</v>
       </c>
       <c r="L24">
-        <v>1.017343828999599</v>
+        <v>1.038808388926364</v>
       </c>
       <c r="M24">
-        <v>1.0107876853223</v>
+        <v>1.044211127509356</v>
       </c>
       <c r="N24">
-        <v>1.022764659969915</v>
+        <v>1.039319591712851</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002114691472862</v>
+        <v>1.033269639564824</v>
       </c>
       <c r="D25">
-        <v>1.019692570796764</v>
+        <v>1.036796694074673</v>
       </c>
       <c r="E25">
-        <v>1.010954103168787</v>
+        <v>1.03698697949145</v>
       </c>
       <c r="F25">
-        <v>1.006825767529217</v>
+        <v>1.042931782919843</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045783382499448</v>
+        <v>1.039352114291282</v>
       </c>
       <c r="J25">
-        <v>1.026571096796938</v>
+        <v>1.038877721931421</v>
       </c>
       <c r="K25">
-        <v>1.031992687239492</v>
+        <v>1.039846094323061</v>
       </c>
       <c r="L25">
-        <v>1.023384717826855</v>
+        <v>1.040035783102453</v>
       </c>
       <c r="M25">
-        <v>1.019319038349585</v>
+        <v>1.045962066432001</v>
       </c>
       <c r="N25">
-        <v>1.028028945503741</v>
+        <v>1.040353047457504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_92/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_92/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034580809857016</v>
+        <v>1.008656896859937</v>
       </c>
       <c r="D2">
-        <v>1.037780492126913</v>
+        <v>1.024498779038527</v>
       </c>
       <c r="E2">
-        <v>1.03822575358075</v>
+        <v>1.016775137226797</v>
       </c>
       <c r="F2">
-        <v>1.044587770365218</v>
+        <v>1.014576051395058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039755918629503</v>
+        <v>1.048261978164244</v>
       </c>
       <c r="J2">
-        <v>1.039699273166877</v>
+        <v>1.030581729072451</v>
       </c>
       <c r="K2">
-        <v>1.040570399656616</v>
+        <v>1.035627040159032</v>
       </c>
       <c r="L2">
-        <v>1.041014391730533</v>
+        <v>1.028005611819076</v>
       </c>
       <c r="M2">
-        <v>1.047358399524011</v>
+        <v>1.025835985992295</v>
       </c>
       <c r="N2">
-        <v>1.041175765389948</v>
+        <v>1.032045273337119</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035533240766308</v>
+        <v>1.013260536137641</v>
       </c>
       <c r="D3">
-        <v>1.038495034182168</v>
+        <v>1.027886523025954</v>
       </c>
       <c r="E3">
-        <v>1.039126364437</v>
+        <v>1.0208827731161</v>
       </c>
       <c r="F3">
-        <v>1.045791274615673</v>
+        <v>1.020032578542521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040046446879131</v>
+        <v>1.049983636949968</v>
       </c>
       <c r="J3">
-        <v>1.040294880276605</v>
+        <v>1.033396119162418</v>
       </c>
       <c r="K3">
-        <v>1.041095072102385</v>
+        <v>1.038174603377767</v>
       </c>
       <c r="L3">
-        <v>1.041724732698938</v>
+        <v>1.031255249422229</v>
       </c>
       <c r="M3">
-        <v>1.048372149208502</v>
+        <v>1.030415397808532</v>
       </c>
       <c r="N3">
-        <v>1.041772218330088</v>
+        <v>1.034863660183821</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036149713575338</v>
+        <v>1.016175632113361</v>
       </c>
       <c r="D4">
-        <v>1.038957486580054</v>
+        <v>1.03003398969743</v>
       </c>
       <c r="E4">
-        <v>1.039709648816163</v>
+        <v>1.023488862019252</v>
       </c>
       <c r="F4">
-        <v>1.046570541138812</v>
+        <v>1.023489384417229</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040233201468797</v>
+        <v>1.051063189836849</v>
       </c>
       <c r="J4">
-        <v>1.040679853774693</v>
+        <v>1.03517442297653</v>
       </c>
       <c r="K4">
-        <v>1.041433995033528</v>
+        <v>1.039782956077073</v>
       </c>
       <c r="L4">
-        <v>1.042184268249752</v>
+        <v>1.033311827478889</v>
       </c>
       <c r="M4">
-        <v>1.049028064688214</v>
+        <v>1.033312343924065</v>
       </c>
       <c r="N4">
-        <v>1.042157738534701</v>
+        <v>1.036644489393323</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036408922904061</v>
+        <v>1.017386437443928</v>
       </c>
       <c r="D5">
-        <v>1.039151923610618</v>
+        <v>1.030926456946758</v>
       </c>
       <c r="E5">
-        <v>1.039954987385247</v>
+        <v>1.024572502281347</v>
       </c>
       <c r="F5">
-        <v>1.04689826936627</v>
+        <v>1.024925638533615</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040311416735644</v>
+        <v>1.051509006327968</v>
       </c>
       <c r="J5">
-        <v>1.040841594585946</v>
+        <v>1.035912111344827</v>
       </c>
       <c r="K5">
-        <v>1.041576339961814</v>
+        <v>1.040449809363519</v>
       </c>
       <c r="L5">
-        <v>1.042377431814377</v>
+        <v>1.034165736465439</v>
       </c>
       <c r="M5">
-        <v>1.049303800186537</v>
+        <v>1.03451496091459</v>
       </c>
       <c r="N5">
-        <v>1.042319709036458</v>
+        <v>1.037383225363717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036452447867579</v>
+        <v>1.017588890775173</v>
       </c>
       <c r="D6">
-        <v>1.039184571709481</v>
+        <v>1.031075710532491</v>
       </c>
       <c r="E6">
-        <v>1.039996188164879</v>
+        <v>1.024753761526076</v>
       </c>
       <c r="F6">
-        <v>1.046953303694411</v>
+        <v>1.025165815772616</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040324532035151</v>
+        <v>1.051583396481304</v>
       </c>
       <c r="J6">
-        <v>1.040868745580937</v>
+        <v>1.036035400705473</v>
       </c>
       <c r="K6">
-        <v>1.041600232176957</v>
+        <v>1.040561240131559</v>
       </c>
       <c r="L6">
-        <v>1.042409863331947</v>
+        <v>1.034308495953764</v>
       </c>
       <c r="M6">
-        <v>1.04935009672941</v>
+        <v>1.034716007591732</v>
       </c>
       <c r="N6">
-        <v>1.042346898588976</v>
+        <v>1.037506689809396</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036153176970108</v>
+        <v>1.016191867992353</v>
       </c>
       <c r="D7">
-        <v>1.038960084571716</v>
+        <v>1.030045955009999</v>
       </c>
       <c r="E7">
-        <v>1.039712926548776</v>
+        <v>1.023503388089873</v>
       </c>
       <c r="F7">
-        <v>1.046574919769421</v>
+        <v>1.023508641548266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040234247749914</v>
+        <v>1.05106917811071</v>
       </c>
       <c r="J7">
-        <v>1.040682015364944</v>
+        <v>1.035184318515933</v>
       </c>
       <c r="K7">
-        <v>1.041435897597446</v>
+        <v>1.039791902753259</v>
       </c>
       <c r="L7">
-        <v>1.042186849410489</v>
+        <v>1.033323278923577</v>
       </c>
       <c r="M7">
-        <v>1.049031749123846</v>
+        <v>1.033328472540474</v>
       </c>
       <c r="N7">
-        <v>1.042159903194658</v>
+        <v>1.036654398985527</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03490264949362</v>
+        <v>1.010226271397037</v>
       </c>
       <c r="D8">
-        <v>1.038021954550219</v>
+        <v>1.025653144805831</v>
       </c>
       <c r="E8">
-        <v>1.038530009229371</v>
+        <v>1.018174340100281</v>
       </c>
       <c r="F8">
-        <v>1.044994393068555</v>
+        <v>1.016435860110376</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039854359871663</v>
+        <v>1.048851099208374</v>
       </c>
       <c r="J8">
-        <v>1.039900648890347</v>
+        <v>1.031541933560104</v>
       </c>
       <c r="K8">
-        <v>1.040747833932667</v>
+        <v>1.036496487809231</v>
       </c>
       <c r="L8">
-        <v>1.041254475643119</v>
+        <v>1.029113629743196</v>
       </c>
       <c r="M8">
-        <v>1.047701011111569</v>
+        <v>1.027397706154225</v>
       </c>
       <c r="N8">
-        <v>1.041377427090043</v>
+        <v>1.033006841425273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03270050675891</v>
+        <v>0.9991987458218901</v>
       </c>
       <c r="D9">
-        <v>1.036369624428763</v>
+        <v>1.0175536073117</v>
       </c>
       <c r="E9">
-        <v>1.036449644362436</v>
+        <v>1.008365577236318</v>
       </c>
       <c r="F9">
-        <v>1.042213259154611</v>
+        <v>1.003372327899536</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03917549166535</v>
+        <v>1.044667702792619</v>
       </c>
       <c r="J9">
-        <v>1.038520555310849</v>
+        <v>1.024779830201693</v>
       </c>
       <c r="K9">
-        <v>1.039530996915325</v>
+        <v>1.030368167498837</v>
       </c>
       <c r="L9">
-        <v>1.039610756039763</v>
+        <v>1.021324371360679</v>
       </c>
       <c r="M9">
-        <v>1.045355700812302</v>
+        <v>1.016410927363563</v>
       </c>
       <c r="N9">
-        <v>1.039995373619363</v>
+        <v>1.026235135104469</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03123340810243</v>
+        <v>0.991460084625022</v>
       </c>
       <c r="D10">
-        <v>1.035268645017429</v>
+        <v>1.011887189794516</v>
       </c>
       <c r="E10">
-        <v>1.0350655283515</v>
+        <v>1.001513205728156</v>
       </c>
       <c r="F10">
-        <v>1.040361802673109</v>
+        <v>0.9942082949714802</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038716571941578</v>
+        <v>1.041677750831957</v>
       </c>
       <c r="J10">
-        <v>1.03759835256572</v>
+        <v>1.020016673549596</v>
       </c>
       <c r="K10">
-        <v>1.038716858673666</v>
+        <v>1.026045083786456</v>
       </c>
       <c r="L10">
-        <v>1.038514469008764</v>
+        <v>1.015855192421681</v>
       </c>
       <c r="M10">
-        <v>1.043791889086679</v>
+        <v>1.008682913794638</v>
       </c>
       <c r="N10">
-        <v>1.039071861240558</v>
+        <v>1.021465214223584</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030598378873195</v>
+        <v>0.9880074789699815</v>
       </c>
       <c r="D11">
-        <v>1.034792055696787</v>
+        <v>1.009364099279507</v>
       </c>
       <c r="E11">
-        <v>1.034466862739046</v>
+        <v>0.9984639756392363</v>
       </c>
       <c r="F11">
-        <v>1.039560719113775</v>
+        <v>0.9901196305444296</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038516354028157</v>
+        <v>1.040331419753251</v>
       </c>
       <c r="J11">
-        <v>1.037198526496314</v>
+        <v>1.017887813507561</v>
       </c>
       <c r="K11">
-        <v>1.038363643086758</v>
+        <v>1.024111556932968</v>
       </c>
       <c r="L11">
-        <v>1.038039659210206</v>
+        <v>1.013414917381252</v>
       </c>
       <c r="M11">
-        <v>1.043114672489831</v>
+        <v>1.005230312954732</v>
       </c>
       <c r="N11">
-        <v>1.038671467372273</v>
+        <v>1.019333330956106</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030362536183254</v>
+        <v>0.986708827598178</v>
       </c>
       <c r="D12">
-        <v>1.034615051360719</v>
+        <v>1.008415895827458</v>
       </c>
       <c r="E12">
-        <v>1.034244592378856</v>
+        <v>0.9973182983611386</v>
       </c>
       <c r="F12">
-        <v>1.039263251849873</v>
+        <v>0.9885816272868424</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038441758641662</v>
+        <v>1.039823202128707</v>
       </c>
       <c r="J12">
-        <v>1.037049937627065</v>
+        <v>1.01708654348593</v>
       </c>
       <c r="K12">
-        <v>1.03823234012521</v>
+        <v>1.023383617392349</v>
       </c>
       <c r="L12">
-        <v>1.037863277643067</v>
+        <v>1.012497056517496</v>
       </c>
       <c r="M12">
-        <v>1.042863112214053</v>
+        <v>1.003930904296993</v>
       </c>
       <c r="N12">
-        <v>1.038522667489786</v>
+        <v>1.018530923039137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030413123632892</v>
+        <v>0.9869881413402271</v>
       </c>
       <c r="D13">
-        <v>1.034653018375842</v>
+        <v>1.008619796854294</v>
       </c>
       <c r="E13">
-        <v>1.034292265557625</v>
+        <v>0.9975646530938849</v>
       </c>
       <c r="F13">
-        <v>1.039327055488398</v>
+        <v>0.9889124271094587</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038457769807896</v>
+        <v>1.039932590682142</v>
       </c>
       <c r="J13">
-        <v>1.037081813861717</v>
+        <v>1.017258903712991</v>
       </c>
       <c r="K13">
-        <v>1.038260509708337</v>
+        <v>1.023540211943239</v>
       </c>
       <c r="L13">
-        <v>1.037901112806978</v>
+        <v>1.012694468414679</v>
       </c>
       <c r="M13">
-        <v>1.042917073292518</v>
+        <v>1.004210415995033</v>
       </c>
       <c r="N13">
-        <v>1.038554588992348</v>
+        <v>1.01870352803749</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030578883318387</v>
+        <v>0.9879004680798409</v>
       </c>
       <c r="D14">
-        <v>1.034777424006406</v>
+        <v>1.009285948670597</v>
       </c>
       <c r="E14">
-        <v>1.034448487743462</v>
+        <v>0.9983695443328411</v>
       </c>
       <c r="F14">
-        <v>1.039536128527928</v>
+        <v>0.9899928993895308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038510192549902</v>
+        <v>1.040289578414706</v>
       </c>
       <c r="J14">
-        <v>1.037186245635337</v>
+        <v>1.017821798104591</v>
       </c>
       <c r="K14">
-        <v>1.038352791640848</v>
+        <v>1.024051586893574</v>
       </c>
       <c r="L14">
-        <v>1.038025079779705</v>
+        <v>1.013339283624812</v>
       </c>
       <c r="M14">
-        <v>1.043093878684102</v>
+        <v>1.005123255368775</v>
       </c>
       <c r="N14">
-        <v>1.038659169071064</v>
+        <v>1.019267221803691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030681018035392</v>
+        <v>0.9884604073694755</v>
       </c>
       <c r="D15">
-        <v>1.034854077381897</v>
+        <v>1.009694909240109</v>
       </c>
       <c r="E15">
-        <v>1.034544754752777</v>
+        <v>0.9988637116402519</v>
       </c>
       <c r="F15">
-        <v>1.039664957343834</v>
+        <v>0.9906560209552061</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038542462051858</v>
+        <v>1.040508441483529</v>
       </c>
       <c r="J15">
-        <v>1.037250579482964</v>
+        <v>1.018167205398482</v>
       </c>
       <c r="K15">
-        <v>1.038409635954735</v>
+        <v>1.024365355844275</v>
       </c>
       <c r="L15">
-        <v>1.038101457808992</v>
+        <v>1.013735041579653</v>
       </c>
       <c r="M15">
-        <v>1.043202812732539</v>
+        <v>1.005683407780514</v>
       </c>
       <c r="N15">
-        <v>1.038723594280134</v>
+        <v>1.019613119615558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031275557856701</v>
+        <v>0.991687002894685</v>
       </c>
       <c r="D16">
-        <v>1.035300277743424</v>
+        <v>1.012053126766955</v>
       </c>
       <c r="E16">
-        <v>1.035105273901415</v>
+        <v>1.001713782796327</v>
       </c>
       <c r="F16">
-        <v>1.040414980727971</v>
+        <v>0.9944770075173524</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038729828104549</v>
+        <v>1.041765983102994</v>
       </c>
       <c r="J16">
-        <v>1.037624877073075</v>
+        <v>1.020156514941611</v>
       </c>
       <c r="K16">
-        <v>1.038740285964601</v>
+        <v>1.026172067010413</v>
       </c>
       <c r="L16">
-        <v>1.038545978290656</v>
+        <v>1.016015576170682</v>
       </c>
       <c r="M16">
-        <v>1.043836832082869</v>
+        <v>1.00890972915854</v>
       </c>
       <c r="N16">
-        <v>1.039098423415756</v>
+        <v>1.021605254206416</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031648559855274</v>
+        <v>0.9936831027245943</v>
       </c>
       <c r="D17">
-        <v>1.035580206046332</v>
+        <v>1.013513376382065</v>
       </c>
       <c r="E17">
-        <v>1.03545705147739</v>
+        <v>1.00347908181667</v>
       </c>
       <c r="F17">
-        <v>1.040885613214028</v>
+        <v>0.9968407286369453</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038846955731132</v>
+        <v>1.042540722811578</v>
       </c>
       <c r="J17">
-        <v>1.037859528811651</v>
+        <v>1.021386213143528</v>
       </c>
       <c r="K17">
-        <v>1.038947510006953</v>
+        <v>1.02728854437324</v>
       </c>
       <c r="L17">
-        <v>1.038824785073573</v>
+        <v>1.017426383877114</v>
       </c>
       <c r="M17">
-        <v>1.044234515029661</v>
+        <v>1.01090437900879</v>
       </c>
       <c r="N17">
-        <v>1.039333408386715</v>
+        <v>1.022836698720828</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031866148186898</v>
+        <v>0.9948376457095193</v>
       </c>
       <c r="D18">
-        <v>1.035743497138399</v>
+        <v>1.014358451096473</v>
       </c>
       <c r="E18">
-        <v>1.035662301575762</v>
+        <v>1.004500880168367</v>
       </c>
       <c r="F18">
-        <v>1.04116018401774</v>
+        <v>0.9982078974683751</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038915129296051</v>
+        <v>1.042987657087284</v>
       </c>
       <c r="J18">
-        <v>1.03799634833442</v>
+        <v>1.022097109269398</v>
       </c>
       <c r="K18">
-        <v>1.039068313838249</v>
+        <v>1.027933857686187</v>
       </c>
       <c r="L18">
-        <v>1.038987397678998</v>
+        <v>1.018242372205975</v>
       </c>
       <c r="M18">
-        <v>1.044466469483345</v>
+        <v>1.012057636803896</v>
       </c>
       <c r="N18">
-        <v>1.0394704222089</v>
+        <v>1.023548604400737</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031940344006525</v>
+        <v>0.9952296882989079</v>
       </c>
       <c r="D19">
-        <v>1.035799177471119</v>
+        <v>1.014645486126277</v>
       </c>
       <c r="E19">
-        <v>1.035732297422141</v>
+        <v>1.004847973028594</v>
       </c>
       <c r="F19">
-        <v>1.041253815567539</v>
+        <v>0.9986721418486529</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038938350119177</v>
+        <v>1.043139219849947</v>
       </c>
       <c r="J19">
-        <v>1.038042991955655</v>
+        <v>1.022338442518875</v>
       </c>
       <c r="K19">
-        <v>1.03910949353861</v>
+        <v>1.028152904743709</v>
       </c>
       <c r="L19">
-        <v>1.039042842549416</v>
+        <v>1.018519448358264</v>
       </c>
       <c r="M19">
-        <v>1.044545558737821</v>
+        <v>1.012449168550757</v>
       </c>
       <c r="N19">
-        <v>1.039517132069427</v>
+        <v>1.02379028037111</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031608537933727</v>
+        <v>0.9934699548255894</v>
       </c>
       <c r="D20">
-        <v>1.035550170970895</v>
+        <v>1.013357398741217</v>
       </c>
       <c r="E20">
-        <v>1.035419302428224</v>
+        <v>1.003290501084521</v>
       </c>
       <c r="F20">
-        <v>1.040835112721428</v>
+        <v>0.9965883265660215</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038834404041507</v>
+        <v>1.042458116006268</v>
       </c>
       <c r="J20">
-        <v>1.037834357952458</v>
+        <v>1.02125494042817</v>
       </c>
       <c r="K20">
-        <v>1.03892528369793</v>
+        <v>1.02716937151596</v>
       </c>
       <c r="L20">
-        <v>1.038794872844748</v>
+        <v>1.017275736716422</v>
       </c>
       <c r="M20">
-        <v>1.044191848169608</v>
+        <v>1.010691432592064</v>
       </c>
       <c r="N20">
-        <v>1.039308201782016</v>
+        <v>1.022705239583158</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030530070242036</v>
+        <v>0.9876322655268657</v>
       </c>
       <c r="D21">
-        <v>1.034740789030701</v>
+        <v>1.009090092472316</v>
       </c>
       <c r="E21">
-        <v>1.034402481418074</v>
+        <v>0.9981328904451233</v>
       </c>
       <c r="F21">
-        <v>1.039474559226848</v>
+        <v>0.9896752696907859</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038494761583209</v>
+        <v>1.040184681966096</v>
       </c>
       <c r="J21">
-        <v>1.037155495166522</v>
+        <v>1.017656334621956</v>
       </c>
       <c r="K21">
-        <v>1.038325619750516</v>
+        <v>1.023901272725976</v>
       </c>
       <c r="L21">
-        <v>1.037988575035534</v>
+        <v>1.013149722338201</v>
       </c>
       <c r="M21">
-        <v>1.043041814234866</v>
+        <v>1.004854923391452</v>
       </c>
       <c r="N21">
-        <v>1.038628374933056</v>
+        <v>1.019101523343932</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029852199978052</v>
+        <v>0.9838676425245375</v>
       </c>
       <c r="D22">
-        <v>1.034232027082796</v>
+        <v>1.006343019630943</v>
       </c>
       <c r="E22">
-        <v>1.033763748670526</v>
+        <v>0.9948141511764155</v>
       </c>
       <c r="F22">
-        <v>1.038619650461576</v>
+        <v>0.9852164890895724</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038279910100086</v>
+        <v>1.03870804031402</v>
       </c>
       <c r="J22">
-        <v>1.036728229606928</v>
+        <v>1.015332601892571</v>
       </c>
       <c r="K22">
-        <v>1.037947991722529</v>
+        <v>1.021789858705256</v>
       </c>
       <c r="L22">
-        <v>1.037481530890459</v>
+        <v>1.010489045539883</v>
       </c>
       <c r="M22">
-        <v>1.042318673289438</v>
+        <v>1.001086611247832</v>
       </c>
       <c r="N22">
-        <v>1.03820050260736</v>
+        <v>1.016774490647535</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030211532294999</v>
+        <v>0.9858725986899026</v>
       </c>
       <c r="D23">
-        <v>1.034501718954412</v>
+        <v>1.00780556934459</v>
       </c>
       <c r="E23">
-        <v>1.034102297497905</v>
+        <v>0.9965809319271166</v>
       </c>
       <c r="F23">
-        <v>1.039072804223052</v>
+        <v>0.9875912329556925</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038393930542626</v>
+        <v>1.039495444850241</v>
       </c>
       <c r="J23">
-        <v>1.036954772513146</v>
+        <v>1.01657044523638</v>
       </c>
       <c r="K23">
-        <v>1.038148235781069</v>
+        <v>1.022914699549591</v>
       </c>
       <c r="L23">
-        <v>1.037750333205809</v>
+        <v>1.01190603703435</v>
       </c>
       <c r="M23">
-        <v>1.042702030686874</v>
+        <v>1.003093967698371</v>
       </c>
       <c r="N23">
-        <v>1.03842736723049</v>
+        <v>1.018014091870876</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031626622047517</v>
+        <v>0.9935662972440705</v>
       </c>
       <c r="D24">
-        <v>1.035563742486509</v>
+        <v>1.013427898875612</v>
       </c>
       <c r="E24">
-        <v>1.035436359400323</v>
+        <v>1.003375736870203</v>
       </c>
       <c r="F24">
-        <v>1.040857931538187</v>
+        <v>0.996702411803034</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03884007605776</v>
+        <v>1.04249545776133</v>
       </c>
       <c r="J24">
-        <v>1.037845731731224</v>
+        <v>1.021314276550827</v>
       </c>
       <c r="K24">
-        <v>1.038935327015558</v>
+        <v>1.027223238825553</v>
       </c>
       <c r="L24">
-        <v>1.038808388926364</v>
+        <v>1.017343828999599</v>
       </c>
       <c r="M24">
-        <v>1.044211127509356</v>
+        <v>1.0107876853223</v>
       </c>
       <c r="N24">
-        <v>1.039319591712851</v>
+        <v>1.022764659969915</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033269639564824</v>
+        <v>1.002114691472861</v>
       </c>
       <c r="D25">
-        <v>1.036796694074673</v>
+        <v>1.019692570796763</v>
       </c>
       <c r="E25">
-        <v>1.03698697949145</v>
+        <v>1.010954103168786</v>
       </c>
       <c r="F25">
-        <v>1.042931782919843</v>
+        <v>1.006825767529216</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039352114291282</v>
+        <v>1.045783382499448</v>
       </c>
       <c r="J25">
-        <v>1.038877721931421</v>
+        <v>1.026571096796937</v>
       </c>
       <c r="K25">
-        <v>1.039846094323061</v>
+        <v>1.031992687239492</v>
       </c>
       <c r="L25">
-        <v>1.040035783102453</v>
+        <v>1.023384717826854</v>
       </c>
       <c r="M25">
-        <v>1.045962066432001</v>
+        <v>1.019319038349584</v>
       </c>
       <c r="N25">
-        <v>1.040353047457504</v>
+        <v>1.028028945503739</v>
       </c>
     </row>
   </sheetData>
